--- a/intent_categorization.xlsx
+++ b/intent_categorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>Intent</t>
   </si>
@@ -99,7 +99,7 @@
     <t>EMP-008</t>
   </si>
   <si>
-    <t>Insurance Premium Receipts Request</t>
+    <t>Insurance Premium Receipts Download Request</t>
   </si>
   <si>
     <t>EMP-009</t>
@@ -147,15 +147,6 @@
     <t>EMP-015</t>
   </si>
   <si>
-    <t>Electronic Clearing Service (ECS) or National Automated Clearing House (NACH) Mandate Related Inquir</t>
-  </si>
-  <si>
-    <t>Payments Department</t>
-  </si>
-  <si>
-    <t>EMP-016</t>
-  </si>
-  <si>
     <t>Suspected Fraud Report</t>
   </si>
   <si>
@@ -183,15 +174,6 @@
     <t>EMP-020</t>
   </si>
   <si>
-    <t>Junk Mail</t>
-  </si>
-  <si>
-    <t>Junk</t>
-  </si>
-  <si>
-    <t>EMP-021</t>
-  </si>
-  <si>
     <t>EMI due date Inquiry</t>
   </si>
   <si>
@@ -258,7 +240,7 @@
     <t>EMP-032</t>
   </si>
   <si>
-    <t>Paytm, UPI  Payment Related issue</t>
+    <t>Paytm, UPI Payment Related issue</t>
   </si>
   <si>
     <t>EMP-033</t>
@@ -294,16 +276,25 @@
     <t>EMP-038</t>
   </si>
   <si>
-    <t>Insurance Pemium Payment related</t>
+    <t>Insurance Premium Payment Related</t>
   </si>
   <si>
     <t>EMP-039</t>
   </si>
   <si>
-    <t>Add or Update Nominee Detais</t>
+    <t>Insurance Premium Due Date Inquiry</t>
   </si>
   <si>
     <t>EMP-040</t>
+  </si>
+  <si>
+    <t>Add or Update Nominee Details</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>EMP-041</t>
   </si>
 </sst>
 </file>
@@ -350,9 +341,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -570,12 +559,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="79.88"/>
-    <col customWidth="1" min="2" max="2" width="33.38"/>
-    <col customWidth="1" min="3" max="3" width="17.75"/>
-    <col customWidth="1" min="4" max="4" width="10.75"/>
-    <col customWidth="1" min="5" max="5" width="15.75"/>
-    <col customWidth="1" min="8" max="8" width="33.38"/>
-    <col customWidth="1" min="9" max="9" width="14.38"/>
+    <col customWidth="1" min="2" max="3" width="33.38"/>
+    <col customWidth="1" min="4" max="4" width="17.75"/>
+    <col customWidth="1" min="5" max="5" width="18.25"/>
+    <col customWidth="1" min="7" max="7" width="37.88"/>
+    <col customWidth="1" min="8" max="9" width="33.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -768,65 +756,68 @@
         <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -834,24 +825,27 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
@@ -859,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
@@ -873,179 +867,173 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
